--- a/thoipapy/setting/thoipapy_run_setting_linux.xlsx
+++ b/thoipapy/setting/thoipapy_run_setting_linux.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="564" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="564" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="run_settings" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="145">
   <si>
     <t>parameter</t>
   </si>
@@ -28,6 +28,12 @@
     <t>notes</t>
   </si>
   <si>
+    <t>list_number</t>
+  </si>
+  <si>
+    <t>42,43,44,45 are for etra,nmr , crystal and all</t>
+  </si>
+  <si>
     <t>tm_protein_name</t>
   </si>
   <si>
@@ -112,6 +118,18 @@
     <t>if true, cumulative_co-evolution feature calculation</t>
   </si>
   <si>
+    <t>clac_relative_position</t>
+  </si>
+  <si>
+    <t>if true, calculate residue relative positions</t>
+  </si>
+  <si>
+    <t>calc_lipo_from_pssm</t>
+  </si>
+  <si>
+    <t>if true, calculate pssm based hessa lipophilicity</t>
+  </si>
+  <si>
     <t>lips_score_feature_calculation</t>
   </si>
   <si>
@@ -220,6 +238,9 @@
     <t>/scratch/zeng/thoipapy/Input_data/Tmd_Start_End_List_Uniq_New.csv</t>
   </si>
   <si>
+    <t>/scratch/zeng/thoipapy/Input_data/Tmd_Start_End_List_Uniq_New.csv,/scratch/zeng/thoipapy/Input_data/z54add10Tmd_len_start_end.csv</t>
+  </si>
+  <si>
     <t>list_of_test_tmd_start_end</t>
   </si>
   <si>
@@ -274,6 +295,12 @@
     <t>/scratch/zeng/thoipapy/Features/pssm</t>
   </si>
   <si>
+    <t>feature_lipophilicity</t>
+  </si>
+  <si>
+    <t>/scratch/zeng/thoipapy/Features/Lipophilicity</t>
+  </si>
+  <si>
     <t>feature_cumulative_coevolution</t>
   </si>
   <si>
@@ -355,7 +382,13 @@
     <t>add_query_seq</t>
   </si>
   <si>
-    <t>save_fasta_plus_surr</t>
+    <t>surres</t>
+  </si>
+  <si>
+    <t>_surr0</t>
+  </si>
+  <si>
+    <t>_surr5 and  _surr0 for surround5 and non</t>
   </si>
   <si>
     <t>remove_redundant_seqs</t>
@@ -428,7 +461,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -481,6 +514,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -562,7 +601,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -608,6 +647,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -692,10 +735,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -717,23 +760,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B3" s="0" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>214</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>7</v>
@@ -744,7 +787,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -754,32 +797,32 @@
       <c r="A5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="0" t="n">
+        <v>230</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="C6" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="0" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>16</v>
       </c>
@@ -790,7 +833,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>18</v>
       </c>
@@ -801,7 +844,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>20</v>
       </c>
@@ -812,30 +855,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="0" t="s">
+      <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>26</v>
@@ -879,7 +922,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>34</v>
@@ -897,7 +940,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
@@ -912,7 +955,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>40</v>
@@ -930,7 +973,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="0" t="n">
@@ -940,57 +983,90 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C24" s="0" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
-        <v>47</v>
+      <c r="A25" s="0" t="s">
+        <v>49</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="9" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="B28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>53</v>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1011,8 +1087,8 @@
   </sheetPr>
   <dimension ref="A1:C65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1036,218 +1112,235 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>104</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>108</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1270,7 +1363,7 @@
   <dimension ref="A1:C65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1282,37 +1375,37 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.01</v>
@@ -1320,25 +1413,25 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>10000</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -1347,16 +1440,18 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>121</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -1365,7 +1460,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B10" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -1374,7 +1469,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.4</v>
@@ -1382,18 +1477,18 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1</v>
@@ -1401,7 +1496,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>2</v>
@@ -1409,7 +1504,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>3</v>
@@ -1417,60 +1512,60 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>10</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
